--- a/Raw data/Repeated measures/SWS_repeated.xlsx
+++ b/Raw data/Repeated measures/SWS_repeated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdasti/Documents/GitHub/Queens-Thesis/Raw data/Repeated measures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB88A163-0774-724C-A0ED-8ADF0CDCA740}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A72B5F4-49F7-744F-AD8B-ED3369F5F408}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15760" xr2:uid="{0D741500-84BB-4E42-8341-0F21917411B0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14360" windowHeight="16260" xr2:uid="{0D741500-84BB-4E42-8341-0F21917411B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="68">
   <si>
     <t>Code</t>
   </si>
@@ -211,6 +211,24 @@
   </si>
   <si>
     <t>AC11</t>
+  </si>
+  <si>
+    <t>AN6</t>
+  </si>
+  <si>
+    <t>AN9</t>
+  </si>
+  <si>
+    <t>AN10</t>
+  </si>
+  <si>
+    <t>AN11</t>
+  </si>
+  <si>
+    <t>AN12</t>
+  </si>
+  <si>
+    <t>AN13</t>
   </si>
 </sst>
 </file>
@@ -234,7 +252,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +283,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -278,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,6 +363,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1702E886-0A1A-FD49-9D93-22F375C10823}">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD43"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1210,28 +1237,28 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="9">
-        <v>11</v>
-      </c>
-      <c r="E18" s="9">
-        <v>5</v>
-      </c>
-      <c r="F18" s="9">
-        <v>22</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="A18" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="22">
+        <v>13</v>
+      </c>
+      <c r="E18" s="22">
+        <v>8</v>
+      </c>
+      <c r="F18" s="22">
+        <v>21</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="22" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -1242,28 +1269,28 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="9">
-        <v>11</v>
-      </c>
-      <c r="E19" s="9">
-        <v>5</v>
-      </c>
-      <c r="F19" s="9">
-        <v>22</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="8" t="s">
+      <c r="A19" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="22">
+        <v>13</v>
+      </c>
+      <c r="E19" s="22">
+        <v>8</v>
+      </c>
+      <c r="F19" s="22">
+        <v>21</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="22" t="s">
         <v>13</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -1274,284 +1301,284 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="11">
-        <v>33</v>
-      </c>
-      <c r="D20" s="12">
+      <c r="A20" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="22">
+        <v>12</v>
+      </c>
+      <c r="E20" s="22">
+        <v>12</v>
+      </c>
+      <c r="F20" s="22">
+        <v>18</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20">
         <v>6</v>
       </c>
-      <c r="E20" s="12">
-        <v>11</v>
-      </c>
-      <c r="F20" s="12">
-        <v>54</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="22">
+        <v>12</v>
+      </c>
+      <c r="E21" s="22">
+        <v>12</v>
+      </c>
+      <c r="F21" s="22">
+        <v>18</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="22">
+        <v>12</v>
+      </c>
+      <c r="E22" s="22">
+        <v>19</v>
+      </c>
+      <c r="F22" s="22">
+        <v>24</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="22">
+        <v>12</v>
+      </c>
+      <c r="E23" s="22">
+        <v>19</v>
+      </c>
+      <c r="F23" s="22">
+        <v>24</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="22">
+        <v>8</v>
+      </c>
+      <c r="E24" s="22">
+        <v>18</v>
+      </c>
+      <c r="F24" s="22">
+        <v>24</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="22">
+        <v>8</v>
+      </c>
+      <c r="E25" s="22">
+        <v>18</v>
+      </c>
+      <c r="F25" s="22">
+        <v>24</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="22">
+        <v>12</v>
+      </c>
+      <c r="E26" s="22">
+        <v>18</v>
+      </c>
+      <c r="F26" s="22">
+        <v>18</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="11">
-        <v>33</v>
-      </c>
-      <c r="D21" s="12">
-        <v>6</v>
-      </c>
-      <c r="E21" s="12">
-        <v>11</v>
-      </c>
-      <c r="F21" s="12">
-        <v>54</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="8">
-        <v>47</v>
-      </c>
-      <c r="D22" s="9">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="22">
+        <v>12</v>
+      </c>
+      <c r="E27" s="22">
+        <v>18</v>
+      </c>
+      <c r="F27" s="22">
+        <v>18</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="22">
+        <v>13</v>
+      </c>
+      <c r="E28" s="22">
         <v>7</v>
       </c>
-      <c r="E22" s="9">
-        <v>7</v>
-      </c>
-      <c r="F22" s="9">
-        <v>21</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="8">
-        <v>47</v>
-      </c>
-      <c r="D23" s="9">
-        <v>7</v>
-      </c>
-      <c r="E23" s="9">
-        <v>7</v>
-      </c>
-      <c r="F23" s="9">
-        <v>21</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="8">
-        <v>44</v>
-      </c>
-      <c r="D24" s="9">
-        <v>2</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
-        <v>20</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="8">
-        <v>44</v>
-      </c>
-      <c r="D25" s="9">
-        <v>2</v>
-      </c>
-      <c r="E25" s="9">
-        <v>0</v>
-      </c>
-      <c r="F25" s="9">
-        <v>20</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="8">
-        <v>38</v>
-      </c>
-      <c r="D26" s="9">
-        <v>7</v>
-      </c>
-      <c r="E26" s="9">
-        <v>11</v>
-      </c>
-      <c r="F26" s="9">
-        <v>20</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="8">
-        <v>38</v>
-      </c>
-      <c r="D27" s="9">
-        <v>7</v>
-      </c>
-      <c r="E27" s="9">
-        <v>11</v>
-      </c>
-      <c r="F27" s="9">
-        <v>20</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="8">
-        <v>45</v>
-      </c>
-      <c r="D28" s="9">
-        <v>5</v>
-      </c>
-      <c r="E28" s="9">
-        <v>6</v>
-      </c>
-      <c r="F28" s="9">
+      <c r="F28" s="22">
         <v>19</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="8" t="s">
+      <c r="G28" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="22" t="s">
         <v>13</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -1562,61 +1589,61 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="8">
-        <v>45</v>
-      </c>
-      <c r="D29" s="9">
-        <v>5</v>
-      </c>
-      <c r="E29" s="9">
-        <v>6</v>
-      </c>
-      <c r="F29" s="9">
+      <c r="A29" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="22">
+        <v>13</v>
+      </c>
+      <c r="E29" s="22">
+        <v>7</v>
+      </c>
+      <c r="F29" s="22">
         <v>19</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="8" t="s">
+      <c r="G29" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="22" t="s">
         <v>13</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="8">
-        <v>46</v>
+      <c r="C30" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D30" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" s="9">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F30" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>14</v>
@@ -1627,28 +1654,28 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="8">
-        <v>46</v>
+      <c r="C31" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="D31" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31" s="9">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F31" s="9">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>15</v>
@@ -1658,28 +1685,28 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="7" t="s">
+      <c r="A32" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="8">
-        <v>37</v>
-      </c>
-      <c r="D32" s="9">
-        <v>8</v>
-      </c>
-      <c r="E32" s="9">
-        <v>8</v>
-      </c>
-      <c r="F32" s="9">
-        <v>27</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="8" t="s">
+      <c r="C32" s="11">
+        <v>33</v>
+      </c>
+      <c r="D32" s="12">
+        <v>6</v>
+      </c>
+      <c r="E32" s="12">
+        <v>11</v>
+      </c>
+      <c r="F32" s="12">
+        <v>54</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="11" t="s">
         <v>13</v>
       </c>
       <c r="I32" s="3" t="s">
@@ -1690,28 +1717,28 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="8">
-        <v>37</v>
-      </c>
-      <c r="D33" s="9">
-        <v>8</v>
-      </c>
-      <c r="E33" s="9">
-        <v>8</v>
-      </c>
-      <c r="F33" s="9">
-        <v>27</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="8" t="s">
+      <c r="C33" s="11">
+        <v>33</v>
+      </c>
+      <c r="D33" s="12">
+        <v>6</v>
+      </c>
+      <c r="E33" s="12">
+        <v>11</v>
+      </c>
+      <c r="F33" s="12">
+        <v>54</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="11" t="s">
         <v>13</v>
       </c>
       <c r="I33" s="3" t="s">
@@ -1723,19 +1750,19 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="8">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D34" s="9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E34" s="9">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F34" s="9">
         <v>21</v>
@@ -1750,24 +1777,24 @@
         <v>14</v>
       </c>
       <c r="J34">
-        <v>11.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="8">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D35" s="9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E35" s="9">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F35" s="9">
         <v>21</v>
@@ -1782,30 +1809,30 @@
         <v>15</v>
       </c>
       <c r="J35">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D36" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E36" s="9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F36" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>13</v>
@@ -1814,30 +1841,30 @@
         <v>14</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C37" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D37" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E37" s="9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F37" s="9">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H37" s="8" t="s">
         <v>13</v>
@@ -1846,161 +1873,161 @@
         <v>15</v>
       </c>
       <c r="J37">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="8">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D38" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E38" s="9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F38" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J38">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="8">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D39" s="9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E39" s="9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F39" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J39">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="8">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D40" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E40" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J40">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C41" s="8">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D41" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E41" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J41">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C42" s="8">
+        <v>46</v>
+      </c>
+      <c r="D42" s="9">
+        <v>12</v>
+      </c>
+      <c r="E42" s="9">
+        <v>17</v>
+      </c>
+      <c r="F42" s="9">
         <v>49</v>
       </c>
-      <c r="D42" s="9">
-        <v>7</v>
-      </c>
-      <c r="E42" s="9">
-        <v>11</v>
-      </c>
-      <c r="F42" s="9">
-        <v>19</v>
-      </c>
       <c r="G42" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>14</v>
@@ -2011,57 +2038,57 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C43" s="8">
+        <v>46</v>
+      </c>
+      <c r="D43" s="9">
+        <v>12</v>
+      </c>
+      <c r="E43" s="9">
+        <v>17</v>
+      </c>
+      <c r="F43" s="9">
         <v>49</v>
       </c>
-      <c r="D43" s="9">
-        <v>7</v>
-      </c>
-      <c r="E43" s="9">
-        <v>11</v>
-      </c>
-      <c r="F43" s="9">
-        <v>19</v>
-      </c>
       <c r="G43" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>15</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="8">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D44" s="9">
         <v>8</v>
       </c>
       <c r="E44" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F44" s="9">
-        <v>19</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="H44" s="8" t="s">
         <v>13</v>
@@ -2070,443 +2097,443 @@
         <v>14</v>
       </c>
       <c r="J44">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C45" s="8">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D45" s="9">
         <v>8</v>
       </c>
       <c r="E45" s="9">
+        <v>8</v>
+      </c>
+      <c r="F45" s="9">
+        <v>27</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="8">
+        <v>27</v>
+      </c>
+      <c r="D46" s="9">
+        <v>10</v>
+      </c>
+      <c r="E46" s="9">
+        <v>15</v>
+      </c>
+      <c r="F46" s="9">
+        <v>21</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="8">
+        <v>27</v>
+      </c>
+      <c r="D47" s="9">
+        <v>10</v>
+      </c>
+      <c r="E47" s="9">
+        <v>15</v>
+      </c>
+      <c r="F47" s="9">
+        <v>21</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="8">
+        <v>46</v>
+      </c>
+      <c r="D48" s="9">
+        <v>5</v>
+      </c>
+      <c r="E48" s="9">
+        <v>9</v>
+      </c>
+      <c r="F48" s="9">
+        <v>24</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="8">
+        <v>46</v>
+      </c>
+      <c r="D49" s="9">
+        <v>5</v>
+      </c>
+      <c r="E49" s="9">
+        <v>9</v>
+      </c>
+      <c r="F49" s="9">
+        <v>24</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="8">
+        <v>46</v>
+      </c>
+      <c r="D50" s="9">
+        <v>4</v>
+      </c>
+      <c r="E50" s="9">
+        <v>0</v>
+      </c>
+      <c r="F50" s="9">
+        <v>22</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="8">
+        <v>46</v>
+      </c>
+      <c r="D51" s="9">
+        <v>4</v>
+      </c>
+      <c r="E51" s="9">
+        <v>0</v>
+      </c>
+      <c r="F51" s="9">
+        <v>22</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="8">
+        <v>40</v>
+      </c>
+      <c r="D52" s="9">
+        <v>8</v>
+      </c>
+      <c r="E52" s="9">
         <v>7</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F52" s="9">
+        <v>18</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="8">
+        <v>40</v>
+      </c>
+      <c r="D53" s="9">
+        <v>8</v>
+      </c>
+      <c r="E53" s="9">
+        <v>7</v>
+      </c>
+      <c r="F53" s="9">
+        <v>18</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="8">
+        <v>49</v>
+      </c>
+      <c r="D54" s="9">
+        <v>7</v>
+      </c>
+      <c r="E54" s="9">
+        <v>11</v>
+      </c>
+      <c r="F54" s="9">
         <v>19</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J45">
+      <c r="G54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="8">
+        <v>49</v>
+      </c>
+      <c r="D55" s="9">
+        <v>7</v>
+      </c>
+      <c r="E55" s="9">
+        <v>11</v>
+      </c>
+      <c r="F55" s="9">
+        <v>19</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="8">
+        <v>43</v>
+      </c>
+      <c r="D56" s="9">
+        <v>8</v>
+      </c>
+      <c r="E56" s="9">
+        <v>7</v>
+      </c>
+      <c r="F56" s="9">
+        <v>19</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="8">
+        <v>43</v>
+      </c>
+      <c r="D57" s="9">
+        <v>8</v>
+      </c>
+      <c r="E57" s="9">
+        <v>7</v>
+      </c>
+      <c r="F57" s="9">
+        <v>19</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57">
         <v>6.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="15">
-        <v>34</v>
-      </c>
-      <c r="D46" s="16">
-        <v>2</v>
-      </c>
-      <c r="E46" s="16">
-        <v>1</v>
-      </c>
-      <c r="F46" s="16">
-        <v>30</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="15">
-        <v>34</v>
-      </c>
-      <c r="D47" s="16">
-        <v>2</v>
-      </c>
-      <c r="E47" s="16">
-        <v>1</v>
-      </c>
-      <c r="F47" s="16">
-        <v>30</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="15">
-        <v>42</v>
-      </c>
-      <c r="D48" s="16">
-        <v>16</v>
-      </c>
-      <c r="E48" s="16">
-        <v>18</v>
-      </c>
-      <c r="F48" s="16">
-        <v>21</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="15">
-        <v>42</v>
-      </c>
-      <c r="D49" s="16">
-        <v>16</v>
-      </c>
-      <c r="E49" s="16">
-        <v>18</v>
-      </c>
-      <c r="F49" s="16">
-        <v>21</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J49">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="15">
-        <v>46</v>
-      </c>
-      <c r="D50" s="16">
-        <v>13</v>
-      </c>
-      <c r="E50" s="16">
-        <v>20</v>
-      </c>
-      <c r="F50" s="16">
-        <v>19</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="15">
-        <v>46</v>
-      </c>
-      <c r="D51" s="16">
-        <v>13</v>
-      </c>
-      <c r="E51" s="16">
-        <v>20</v>
-      </c>
-      <c r="F51" s="16">
-        <v>19</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J51">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="15">
-        <v>41</v>
-      </c>
-      <c r="D52" s="16">
-        <v>9</v>
-      </c>
-      <c r="E52" s="16">
-        <v>13</v>
-      </c>
-      <c r="F52" s="16">
-        <v>39</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="15">
-        <v>41</v>
-      </c>
-      <c r="D53" s="16">
-        <v>9</v>
-      </c>
-      <c r="E53" s="16">
-        <v>13</v>
-      </c>
-      <c r="F53" s="16">
-        <v>39</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="15">
-        <v>40</v>
-      </c>
-      <c r="D54" s="16">
-        <v>9</v>
-      </c>
-      <c r="E54" s="16">
-        <v>14</v>
-      </c>
-      <c r="F54" s="16">
-        <v>19</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="15">
-        <v>40</v>
-      </c>
-      <c r="D55" s="16">
-        <v>9</v>
-      </c>
-      <c r="E55" s="16">
-        <v>14</v>
-      </c>
-      <c r="F55" s="16">
-        <v>19</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="15">
-        <v>41</v>
-      </c>
-      <c r="D56" s="16">
-        <v>8</v>
-      </c>
-      <c r="E56" s="16">
-        <v>6</v>
-      </c>
-      <c r="F56" s="16">
-        <v>21</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="15">
-        <v>41</v>
-      </c>
-      <c r="D57" s="16">
-        <v>8</v>
-      </c>
-      <c r="E57" s="16">
-        <v>6</v>
-      </c>
-      <c r="F57" s="16">
-        <v>21</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J57">
-        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C58" s="15">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D58" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E58" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F58" s="16">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G58" s="15" t="s">
         <v>16</v>
@@ -2518,27 +2545,27 @@
         <v>14</v>
       </c>
       <c r="J58">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C59" s="15">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D59" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F59" s="16">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G59" s="15" t="s">
         <v>16</v>
@@ -2550,27 +2577,27 @@
         <v>15</v>
       </c>
       <c r="J59">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C60" s="15">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D60" s="16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E60" s="16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F60" s="16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G60" s="15" t="s">
         <v>16</v>
@@ -2582,27 +2609,27 @@
         <v>14</v>
       </c>
       <c r="J60">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C61" s="15">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D61" s="16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E61" s="16">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F61" s="16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G61" s="15" t="s">
         <v>16</v>
@@ -2614,27 +2641,27 @@
         <v>15</v>
       </c>
       <c r="J61">
-        <v>4.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C62" s="15">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D62" s="16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F62" s="16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G62" s="15" t="s">
         <v>16</v>
@@ -2646,27 +2673,27 @@
         <v>14</v>
       </c>
       <c r="J62">
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C63" s="15">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D63" s="16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F63" s="16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G63" s="15" t="s">
         <v>16</v>
@@ -2678,65 +2705,65 @@
         <v>15</v>
       </c>
       <c r="J63">
-        <v>3.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C64" s="15">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D64" s="16">
         <v>9</v>
       </c>
       <c r="E64" s="16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F64" s="16">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G64" s="15" t="s">
         <v>16</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I64" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J64">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C65" s="15">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D65" s="16">
         <v>9</v>
       </c>
       <c r="E65" s="16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F65" s="16">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G65" s="15" t="s">
         <v>16</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>15</v>
@@ -2746,456 +2773,456 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="15">
+        <v>40</v>
+      </c>
+      <c r="D66" s="16">
+        <v>9</v>
+      </c>
+      <c r="E66" s="16">
+        <v>14</v>
+      </c>
+      <c r="F66" s="16">
+        <v>19</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="15">
+        <v>40</v>
+      </c>
+      <c r="D67" s="16">
+        <v>9</v>
+      </c>
+      <c r="E67" s="16">
+        <v>14</v>
+      </c>
+      <c r="F67" s="16">
+        <v>19</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="15">
+        <v>41</v>
+      </c>
+      <c r="D68" s="16">
+        <v>8</v>
+      </c>
+      <c r="E68" s="16">
+        <v>6</v>
+      </c>
+      <c r="F68" s="16">
+        <v>21</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="15">
+        <v>41</v>
+      </c>
+      <c r="D69" s="16">
+        <v>8</v>
+      </c>
+      <c r="E69" s="16">
+        <v>6</v>
+      </c>
+      <c r="F69" s="16">
+        <v>21</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="15">
+        <v>47</v>
+      </c>
+      <c r="D70" s="16">
+        <v>3</v>
+      </c>
+      <c r="E70" s="16">
+        <v>3</v>
+      </c>
+      <c r="F70" s="16">
+        <v>21</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="15">
+        <v>47</v>
+      </c>
+      <c r="D71" s="16">
+        <v>3</v>
+      </c>
+      <c r="E71" s="16">
+        <v>3</v>
+      </c>
+      <c r="F71" s="16">
+        <v>21</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="15">
+        <v>29</v>
+      </c>
+      <c r="D72" s="16">
+        <v>12</v>
+      </c>
+      <c r="E72" s="16">
+        <v>16</v>
+      </c>
+      <c r="F72" s="16">
+        <v>18</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="15">
+        <v>29</v>
+      </c>
+      <c r="D73" s="16">
+        <v>12</v>
+      </c>
+      <c r="E73" s="16">
+        <v>16</v>
+      </c>
+      <c r="F73" s="16">
+        <v>18</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="15">
+        <v>48</v>
+      </c>
+      <c r="D74" s="16">
+        <v>9</v>
+      </c>
+      <c r="E74" s="16">
+        <v>10</v>
+      </c>
+      <c r="F74" s="16">
+        <v>21</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J74">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="15">
+        <v>48</v>
+      </c>
+      <c r="D75" s="16">
+        <v>9</v>
+      </c>
+      <c r="E75" s="16">
+        <v>10</v>
+      </c>
+      <c r="F75" s="16">
+        <v>21</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" s="15">
+        <v>48</v>
+      </c>
+      <c r="D76" s="16">
+        <v>9</v>
+      </c>
+      <c r="E76" s="16">
+        <v>14</v>
+      </c>
+      <c r="F76" s="16">
+        <v>20</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="15">
+        <v>48</v>
+      </c>
+      <c r="D77" s="16">
+        <v>9</v>
+      </c>
+      <c r="E77" s="16">
+        <v>14</v>
+      </c>
+      <c r="F77" s="16">
+        <v>20</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="15">
+      <c r="B78" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="15">
         <v>32</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D78" s="16">
         <v>1</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E78" s="16">
         <v>4</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F78" s="16">
         <v>20</v>
       </c>
-      <c r="G66" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J66">
+      <c r="G78" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="15">
+      <c r="B79" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="15">
         <v>32</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D79" s="16">
         <v>1</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E79" s="16">
         <v>4</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F79" s="16">
         <v>20</v>
       </c>
-      <c r="G67" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J67">
+      <c r="G79" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79">
         <v>3.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B68" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="19">
-        <v>8</v>
-      </c>
-      <c r="E68" s="19">
-        <v>11</v>
-      </c>
-      <c r="F68" s="19">
-        <v>26</v>
-      </c>
-      <c r="G68" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J68" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="19">
-        <v>8</v>
-      </c>
-      <c r="E69" s="19">
-        <v>11</v>
-      </c>
-      <c r="F69" s="19">
-        <v>26</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J69" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="19">
-        <v>10</v>
-      </c>
-      <c r="E70" s="19">
-        <v>14</v>
-      </c>
-      <c r="F70" s="19">
-        <v>23</v>
-      </c>
-      <c r="G70" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H70" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I70" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J70" s="21">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="19">
-        <v>10</v>
-      </c>
-      <c r="E71" s="19">
-        <v>14</v>
-      </c>
-      <c r="F71" s="19">
-        <v>23</v>
-      </c>
-      <c r="G71" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H71" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I71" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J71" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="19">
-        <v>11</v>
-      </c>
-      <c r="E72" s="19">
-        <v>14</v>
-      </c>
-      <c r="F72" s="19">
-        <v>18</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I72" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J72" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="19">
-        <v>11</v>
-      </c>
-      <c r="E73" s="19">
-        <v>14</v>
-      </c>
-      <c r="F73" s="19">
-        <v>18</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J73" s="21">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="19">
-        <v>6</v>
-      </c>
-      <c r="E74" s="19">
-        <v>4</v>
-      </c>
-      <c r="F74" s="19">
-        <v>18</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H74" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J74" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="19">
-        <v>6</v>
-      </c>
-      <c r="E75" s="19">
-        <v>4</v>
-      </c>
-      <c r="F75" s="19">
-        <v>18</v>
-      </c>
-      <c r="G75" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J75" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="19">
-        <v>12</v>
-      </c>
-      <c r="E76" s="19">
-        <v>17</v>
-      </c>
-      <c r="F76" s="19">
-        <v>18</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J76" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B77" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="19">
-        <v>12</v>
-      </c>
-      <c r="E77" s="19">
-        <v>17</v>
-      </c>
-      <c r="F77" s="19">
-        <v>18</v>
-      </c>
-      <c r="G77" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H77" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J77" s="21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="19">
-        <v>12</v>
-      </c>
-      <c r="E78" s="19">
-        <v>14</v>
-      </c>
-      <c r="F78" s="19">
-        <v>18</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H78" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J78" s="21">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="19">
-        <v>12</v>
-      </c>
-      <c r="E79" s="19">
-        <v>14</v>
-      </c>
-      <c r="F79" s="19">
-        <v>18</v>
-      </c>
-      <c r="G79" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H79" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J79" s="21">
-        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B80" s="17" t="s">
         <v>44</v>
@@ -3204,16 +3231,16 @@
         <v>11</v>
       </c>
       <c r="D80" s="19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E80" s="19">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F80" s="19">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H80" s="17" t="s">
         <v>13</v>
@@ -3222,38 +3249,422 @@
         <v>14</v>
       </c>
       <c r="J80" s="21">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="19">
+        <v>8</v>
+      </c>
+      <c r="E81" s="19">
+        <v>11</v>
+      </c>
+      <c r="F81" s="19">
+        <v>26</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="19">
+        <v>10</v>
+      </c>
+      <c r="E82" s="19">
+        <v>14</v>
+      </c>
+      <c r="F82" s="19">
+        <v>23</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82" s="21">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="19">
+        <v>10</v>
+      </c>
+      <c r="E83" s="19">
+        <v>14</v>
+      </c>
+      <c r="F83" s="19">
+        <v>23</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="19">
+        <v>11</v>
+      </c>
+      <c r="E84" s="19">
+        <v>14</v>
+      </c>
+      <c r="F84" s="19">
+        <v>18</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="19">
+        <v>11</v>
+      </c>
+      <c r="E85" s="19">
+        <v>14</v>
+      </c>
+      <c r="F85" s="19">
+        <v>18</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" s="21">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="19">
+        <v>6</v>
+      </c>
+      <c r="E86" s="19">
+        <v>4</v>
+      </c>
+      <c r="F86" s="19">
+        <v>18</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="19">
+        <v>6</v>
+      </c>
+      <c r="E87" s="19">
+        <v>4</v>
+      </c>
+      <c r="F87" s="19">
+        <v>18</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="19">
+        <v>12</v>
+      </c>
+      <c r="E88" s="19">
+        <v>17</v>
+      </c>
+      <c r="F88" s="19">
+        <v>18</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="19">
+        <v>12</v>
+      </c>
+      <c r="E89" s="19">
+        <v>17</v>
+      </c>
+      <c r="F89" s="19">
+        <v>18</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="19">
+        <v>12</v>
+      </c>
+      <c r="E90" s="19">
+        <v>14</v>
+      </c>
+      <c r="F90" s="19">
+        <v>18</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" s="21">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="19">
+        <v>12</v>
+      </c>
+      <c r="E91" s="19">
+        <v>14</v>
+      </c>
+      <c r="F91" s="19">
+        <v>18</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B81" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="19">
-        <v>11</v>
-      </c>
-      <c r="E81" s="19">
-        <v>15</v>
-      </c>
-      <c r="F81" s="19">
+      <c r="B92" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="19">
+        <v>11</v>
+      </c>
+      <c r="E92" s="19">
+        <v>15</v>
+      </c>
+      <c r="F92" s="19">
         <v>18</v>
       </c>
-      <c r="G81" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H81" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J81" s="21">
+      <c r="G92" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="19">
+        <v>11</v>
+      </c>
+      <c r="E93" s="19">
+        <v>15</v>
+      </c>
+      <c r="F93" s="19">
+        <v>18</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J93" s="21">
         <v>5</v>
       </c>
     </row>

--- a/Raw data/Repeated measures/SWS_repeated.xlsx
+++ b/Raw data/Repeated measures/SWS_repeated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdasti/Documents/GitHub/Queens-Thesis/Raw data/Repeated measures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A72B5F4-49F7-744F-AD8B-ED3369F5F408}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457440FA-0CC0-104D-81D3-9A118383A52B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="14360" windowHeight="16260" xr2:uid="{0D741500-84BB-4E42-8341-0F21917411B0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="70">
   <si>
     <t>Code</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>AN13</t>
+  </si>
+  <si>
+    <t>AM1</t>
+  </si>
+  <si>
+    <t>AM2</t>
   </si>
 </sst>
 </file>
@@ -252,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,6 +295,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -302,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -364,6 +376,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -680,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1702E886-0A1A-FD49-9D93-22F375C10823}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2517,151 +2532,151 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C58" s="15">
-        <v>34</v>
-      </c>
-      <c r="D58" s="16">
-        <v>2</v>
-      </c>
-      <c r="E58" s="16">
-        <v>1</v>
-      </c>
-      <c r="F58" s="16">
-        <v>30</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" s="15" t="s">
+      <c r="A58" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="23">
+        <v>11</v>
+      </c>
+      <c r="E58" s="23">
+        <v>9</v>
+      </c>
+      <c r="F58" s="23">
+        <v>23</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" s="23" t="s">
         <v>13</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="23">
+        <v>11</v>
+      </c>
+      <c r="E59" s="23">
+        <v>9</v>
+      </c>
+      <c r="F59" s="23">
+        <v>23</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" s="15">
-        <v>34</v>
-      </c>
-      <c r="D59" s="16">
-        <v>2</v>
-      </c>
-      <c r="E59" s="16">
-        <v>1</v>
-      </c>
-      <c r="F59" s="16">
-        <v>30</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J59">
+      <c r="E60" s="23">
+        <v>13</v>
+      </c>
+      <c r="F60" s="23">
+        <v>27</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="15">
-        <v>42</v>
-      </c>
-      <c r="D60" s="16">
-        <v>16</v>
-      </c>
-      <c r="E60" s="16">
-        <v>18</v>
-      </c>
-      <c r="F60" s="16">
-        <v>21</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="15">
-        <v>42</v>
-      </c>
-      <c r="D61" s="16">
-        <v>16</v>
-      </c>
-      <c r="E61" s="16">
-        <v>18</v>
-      </c>
-      <c r="F61" s="16">
-        <v>21</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" s="15" t="s">
+      <c r="E61" s="23">
+        <v>13</v>
+      </c>
+      <c r="F61" s="23">
+        <v>27</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="23" t="s">
         <v>13</v>
       </c>
       <c r="I61" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J61">
-        <v>11</v>
+      <c r="J61" s="3">
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C62" s="15">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D62" s="16">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E62" s="16">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F62" s="16">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G62" s="15" t="s">
         <v>16</v>
@@ -2678,22 +2693,22 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C63" s="15">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D63" s="16">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E63" s="16">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F63" s="16">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G63" s="15" t="s">
         <v>16</v>
@@ -2705,27 +2720,27 @@
         <v>15</v>
       </c>
       <c r="J63">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C64" s="15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D64" s="16">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E64" s="16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F64" s="16">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G64" s="15" t="s">
         <v>16</v>
@@ -2737,27 +2752,27 @@
         <v>14</v>
       </c>
       <c r="J64">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C65" s="15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D65" s="16">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E65" s="16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F65" s="16">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G65" s="15" t="s">
         <v>16</v>
@@ -2769,24 +2784,24 @@
         <v>15</v>
       </c>
       <c r="J65">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C66" s="15">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D66" s="16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E66" s="16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F66" s="16">
         <v>19</v>
@@ -2806,19 +2821,19 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C67" s="15">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D67" s="16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F67" s="16">
         <v>19</v>
@@ -2833,12 +2848,12 @@
         <v>15</v>
       </c>
       <c r="J67">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>44</v>
@@ -2847,13 +2862,13 @@
         <v>41</v>
       </c>
       <c r="D68" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E68" s="16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F68" s="16">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G68" s="15" t="s">
         <v>16</v>
@@ -2870,7 +2885,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>44</v>
@@ -2879,13 +2894,13 @@
         <v>41</v>
       </c>
       <c r="D69" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E69" s="16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F69" s="16">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G69" s="15" t="s">
         <v>16</v>
@@ -2897,27 +2912,27 @@
         <v>15</v>
       </c>
       <c r="J69">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C70" s="15">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D70" s="16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E70" s="16">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F70" s="16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G70" s="15" t="s">
         <v>16</v>
@@ -2929,27 +2944,27 @@
         <v>14</v>
       </c>
       <c r="J70">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C71" s="15">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D71" s="16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E71" s="16">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F71" s="16">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G71" s="15" t="s">
         <v>16</v>
@@ -2966,22 +2981,22 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C72" s="15">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D72" s="16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E72" s="16">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F72" s="16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>16</v>
@@ -2993,27 +3008,27 @@
         <v>14</v>
       </c>
       <c r="J72">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C73" s="15">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D73" s="16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E73" s="16">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F73" s="16">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G73" s="15" t="s">
         <v>16</v>
@@ -3025,24 +3040,24 @@
         <v>15</v>
       </c>
       <c r="J73">
-        <v>4.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B74" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C74" s="15">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D74" s="16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E74" s="16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F74" s="16">
         <v>21</v>
@@ -3057,24 +3072,24 @@
         <v>14</v>
       </c>
       <c r="J74">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C75" s="15">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D75" s="16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E75" s="16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F75" s="16">
         <v>21</v>
@@ -3089,123 +3104,123 @@
         <v>15</v>
       </c>
       <c r="J75">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C76" s="15">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D76" s="16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E76" s="16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F76" s="16">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G76" s="15" t="s">
         <v>16</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J76">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C77" s="15">
+        <v>29</v>
+      </c>
+      <c r="D77" s="16">
+        <v>12</v>
+      </c>
+      <c r="E77" s="16">
+        <v>16</v>
+      </c>
+      <c r="F77" s="16">
+        <v>18</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="15">
         <v>48</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D78" s="16">
         <v>9</v>
       </c>
-      <c r="E77" s="16">
-        <v>14</v>
-      </c>
-      <c r="F77" s="16">
-        <v>20</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H77" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B78" s="15" t="s">
+      <c r="E78" s="16">
+        <v>10</v>
+      </c>
+      <c r="F78" s="16">
+        <v>21</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C78" s="15">
-        <v>32</v>
-      </c>
-      <c r="D78" s="16">
-        <v>1</v>
-      </c>
-      <c r="E78" s="16">
-        <v>4</v>
-      </c>
-      <c r="F78" s="16">
-        <v>20</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H78" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>44</v>
-      </c>
       <c r="C79" s="15">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D79" s="16">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E79" s="16">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F79" s="16">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G79" s="15" t="s">
         <v>16</v>
@@ -3221,136 +3236,136 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B80" s="17" t="s">
+      <c r="A80" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C80" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="19">
-        <v>8</v>
-      </c>
-      <c r="E80" s="19">
-        <v>11</v>
-      </c>
-      <c r="F80" s="19">
-        <v>26</v>
-      </c>
-      <c r="G80" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I80" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J80" s="21">
+      <c r="C80" s="15">
+        <v>48</v>
+      </c>
+      <c r="D80" s="16">
+        <v>9</v>
+      </c>
+      <c r="E80" s="16">
+        <v>14</v>
+      </c>
+      <c r="F80" s="16">
+        <v>20</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" s="15">
+        <v>48</v>
+      </c>
+      <c r="D81" s="16">
+        <v>9</v>
+      </c>
+      <c r="E81" s="16">
+        <v>14</v>
+      </c>
+      <c r="F81" s="16">
+        <v>20</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="15">
+        <v>32</v>
+      </c>
+      <c r="D82" s="16">
+        <v>1</v>
+      </c>
+      <c r="E82" s="16">
+        <v>4</v>
+      </c>
+      <c r="F82" s="16">
+        <v>20</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B81" s="17" t="s">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C81" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="19">
-        <v>8</v>
-      </c>
-      <c r="E81" s="19">
-        <v>11</v>
-      </c>
-      <c r="F81" s="19">
-        <v>26</v>
-      </c>
-      <c r="G81" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J81" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="19">
-        <v>10</v>
-      </c>
-      <c r="E82" s="19">
-        <v>14</v>
-      </c>
-      <c r="F82" s="19">
-        <v>23</v>
-      </c>
-      <c r="G82" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H82" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J82" s="21">
+      <c r="C83" s="15">
+        <v>32</v>
+      </c>
+      <c r="D83" s="16">
+        <v>1</v>
+      </c>
+      <c r="E83" s="16">
+        <v>4</v>
+      </c>
+      <c r="F83" s="16">
+        <v>20</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83">
         <v>3.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="19">
-        <v>10</v>
-      </c>
-      <c r="E83" s="19">
-        <v>14</v>
-      </c>
-      <c r="F83" s="19">
-        <v>23</v>
-      </c>
-      <c r="G83" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J83" s="21">
-        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B84" s="17" t="s">
         <v>44</v>
@@ -3359,16 +3374,16 @@
         <v>11</v>
       </c>
       <c r="D84" s="19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E84" s="19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F84" s="19">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H84" s="17" t="s">
         <v>13</v>
@@ -3382,7 +3397,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B85" s="17" t="s">
         <v>44</v>
@@ -3391,16 +3406,16 @@
         <v>11</v>
       </c>
       <c r="D85" s="19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E85" s="19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F85" s="19">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H85" s="17" t="s">
         <v>13</v>
@@ -3409,12 +3424,12 @@
         <v>15</v>
       </c>
       <c r="J85" s="21">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B86" s="17" t="s">
         <v>44</v>
@@ -3423,13 +3438,13 @@
         <v>11</v>
       </c>
       <c r="D86" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E86" s="19">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F86" s="19">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G86" s="17" t="s">
         <v>16</v>
@@ -3441,12 +3456,12 @@
         <v>14</v>
       </c>
       <c r="J86" s="21">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>44</v>
@@ -3455,13 +3470,13 @@
         <v>11</v>
       </c>
       <c r="D87" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E87" s="19">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F87" s="19">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G87" s="17" t="s">
         <v>16</v>
@@ -3478,7 +3493,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B88" s="17" t="s">
         <v>44</v>
@@ -3487,10 +3502,10 @@
         <v>11</v>
       </c>
       <c r="D88" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E88" s="19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F88" s="19">
         <v>18</v>
@@ -3505,12 +3520,12 @@
         <v>14</v>
       </c>
       <c r="J88" s="21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B89" s="17" t="s">
         <v>44</v>
@@ -3519,10 +3534,10 @@
         <v>11</v>
       </c>
       <c r="D89" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E89" s="19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F89" s="19">
         <v>18</v>
@@ -3537,12 +3552,12 @@
         <v>15</v>
       </c>
       <c r="J89" s="21">
-        <v>5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B90" s="17" t="s">
         <v>44</v>
@@ -3551,10 +3566,10 @@
         <v>11</v>
       </c>
       <c r="D90" s="19">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E90" s="19">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F90" s="19">
         <v>18</v>
@@ -3569,12 +3584,12 @@
         <v>14</v>
       </c>
       <c r="J90" s="21">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B91" s="17" t="s">
         <v>44</v>
@@ -3583,10 +3598,10 @@
         <v>11</v>
       </c>
       <c r="D91" s="19">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E91" s="19">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F91" s="19">
         <v>18</v>
@@ -3601,12 +3616,12 @@
         <v>15</v>
       </c>
       <c r="J91" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B92" s="17" t="s">
         <v>44</v>
@@ -3615,10 +3630,10 @@
         <v>11</v>
       </c>
       <c r="D92" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E92" s="19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F92" s="19">
         <v>18</v>
@@ -3633,12 +3648,12 @@
         <v>14</v>
       </c>
       <c r="J92" s="21">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B93" s="17" t="s">
         <v>44</v>
@@ -3647,10 +3662,10 @@
         <v>11</v>
       </c>
       <c r="D93" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E93" s="19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F93" s="19">
         <v>18</v>
@@ -3665,6 +3680,134 @@
         <v>15</v>
       </c>
       <c r="J93" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="19">
+        <v>12</v>
+      </c>
+      <c r="E94" s="19">
+        <v>14</v>
+      </c>
+      <c r="F94" s="19">
+        <v>18</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" s="21">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" s="19">
+        <v>12</v>
+      </c>
+      <c r="E95" s="19">
+        <v>14</v>
+      </c>
+      <c r="F95" s="19">
+        <v>18</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D96" s="19">
+        <v>11</v>
+      </c>
+      <c r="E96" s="19">
+        <v>15</v>
+      </c>
+      <c r="F96" s="19">
+        <v>18</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="19">
+        <v>11</v>
+      </c>
+      <c r="E97" s="19">
+        <v>15</v>
+      </c>
+      <c r="F97" s="19">
+        <v>18</v>
+      </c>
+      <c r="G97" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97" s="21">
         <v>5</v>
       </c>
     </row>

--- a/Raw data/Repeated measures/SWS_repeated.xlsx
+++ b/Raw data/Repeated measures/SWS_repeated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohdasti/Documents/GitHub/Queens-Thesis/Raw data/Repeated measures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457440FA-0CC0-104D-81D3-9A118383A52B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5876375-F747-5046-98DB-34A0AC7CEEDB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14360" windowHeight="16260" xr2:uid="{0D741500-84BB-4E42-8341-0F21917411B0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20520" windowHeight="16260" xr2:uid="{0D741500-84BB-4E42-8341-0F21917411B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="72">
   <si>
     <t>Code</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>MedinScores</t>
-  </si>
-  <si>
     <t>NAP</t>
   </si>
   <si>
@@ -235,6 +232,15 @@
   </si>
   <si>
     <t>AM2</t>
+  </si>
+  <si>
+    <t>AM4</t>
+  </si>
+  <si>
+    <t>AM7</t>
+  </si>
+  <si>
+    <t>MedianScores</t>
   </si>
 </sst>
 </file>
@@ -314,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -379,6 +385,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -695,16 +710,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1702E886-0A1A-FD49-9D93-22F375C10823}">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="3"/>
-    <col min="9" max="9" width="10.83203125" style="3"/>
+    <col min="9" max="10" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -735,16 +750,16 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
+      <c r="J1" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="5">
         <v>40</v>
@@ -759,24 +774,24 @@
         <v>21</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="J2" s="3">
         <v>3.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5">
         <v>40</v>
@@ -791,24 +806,24 @@
         <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3">
+        <v>14</v>
+      </c>
+      <c r="J3" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="5">
         <v>45</v>
@@ -823,24 +838,24 @@
         <v>22</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="J4" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5">
         <v>45</v>
@@ -855,24 +870,24 @@
         <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5">
+        <v>14</v>
+      </c>
+      <c r="J5" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5">
         <v>34</v>
@@ -887,24 +902,24 @@
         <v>24</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="J6" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <v>34</v>
@@ -919,24 +934,24 @@
         <v>24</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7">
+        <v>14</v>
+      </c>
+      <c r="J7" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5">
         <v>33</v>
@@ -951,24 +966,24 @@
         <v>21</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8">
+        <v>13</v>
+      </c>
+      <c r="J8" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5">
         <v>33</v>
@@ -983,24 +998,24 @@
         <v>21</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9">
+        <v>14</v>
+      </c>
+      <c r="J9" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5">
         <v>49</v>
@@ -1015,24 +1030,24 @@
         <v>18</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10">
+        <v>13</v>
+      </c>
+      <c r="J10" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5">
         <v>49</v>
@@ -1047,24 +1062,24 @@
         <v>18</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11">
+        <v>14</v>
+      </c>
+      <c r="J11" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="5">
         <v>32</v>
@@ -1079,24 +1094,24 @@
         <v>19</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12">
+        <v>13</v>
+      </c>
+      <c r="J12" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5">
         <v>32</v>
@@ -1111,24 +1126,24 @@
         <v>19</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13">
+        <v>14</v>
+      </c>
+      <c r="J13" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="5">
         <v>41</v>
@@ -1143,24 +1158,24 @@
         <v>28</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="J14" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="5">
         <v>41</v>
@@ -1175,24 +1190,24 @@
         <v>28</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="J15" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="5">
         <v>35</v>
@@ -1207,24 +1222,24 @@
         <v>21</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16">
+        <v>13</v>
+      </c>
+      <c r="J16" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="5">
         <v>35</v>
@@ -1239,27 +1254,27 @@
         <v>21</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17">
+        <v>14</v>
+      </c>
+      <c r="J17" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="22">
         <v>13</v>
@@ -1271,27 +1286,27 @@
         <v>21</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18">
+        <v>13</v>
+      </c>
+      <c r="J18" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="22">
         <v>13</v>
@@ -1303,27 +1318,27 @@
         <v>21</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19">
+        <v>14</v>
+      </c>
+      <c r="J19" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="22">
         <v>12</v>
@@ -1335,27 +1350,27 @@
         <v>18</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20">
+        <v>13</v>
+      </c>
+      <c r="J20" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="22">
         <v>12</v>
@@ -1367,27 +1382,27 @@
         <v>18</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21">
+        <v>14</v>
+      </c>
+      <c r="J21" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="22">
         <v>12</v>
@@ -1399,27 +1414,27 @@
         <v>24</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22">
+        <v>13</v>
+      </c>
+      <c r="J22" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="22">
         <v>12</v>
@@ -1431,27 +1446,27 @@
         <v>24</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J23">
+        <v>14</v>
+      </c>
+      <c r="J23" s="3">
         <v>3.5</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="22">
         <v>8</v>
@@ -1463,27 +1478,27 @@
         <v>24</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24">
+        <v>13</v>
+      </c>
+      <c r="J24" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="22">
         <v>8</v>
@@ -1495,27 +1510,27 @@
         <v>24</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J25">
+        <v>14</v>
+      </c>
+      <c r="J25" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="22">
         <v>12</v>
@@ -1527,27 +1542,27 @@
         <v>18</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26">
+        <v>13</v>
+      </c>
+      <c r="J26" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="22">
         <v>12</v>
@@ -1559,27 +1574,27 @@
         <v>18</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27">
+        <v>14</v>
+      </c>
+      <c r="J27" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="22">
         <v>13</v>
@@ -1591,27 +1606,27 @@
         <v>19</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28">
+        <v>13</v>
+      </c>
+      <c r="J28" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="22">
         <v>13</v>
@@ -1623,27 +1638,27 @@
         <v>19</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J29">
+        <v>14</v>
+      </c>
+      <c r="J29" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="9">
         <v>11</v>
@@ -1655,27 +1670,27 @@
         <v>22</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30">
+        <v>13</v>
+      </c>
+      <c r="J30" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="9">
         <v>11</v>
@@ -1687,24 +1702,24 @@
         <v>22</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J31">
+        <v>14</v>
+      </c>
+      <c r="J31" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="11">
         <v>33</v>
@@ -1719,24 +1734,24 @@
         <v>54</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32">
+        <v>13</v>
+      </c>
+      <c r="J32" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="11">
         <v>33</v>
@@ -1751,24 +1766,24 @@
         <v>54</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33">
+        <v>14</v>
+      </c>
+      <c r="J33" s="3">
         <v>3.5</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="8">
         <v>47</v>
@@ -1783,24 +1798,24 @@
         <v>21</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34">
+        <v>13</v>
+      </c>
+      <c r="J34" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="8">
         <v>47</v>
@@ -1815,24 +1830,24 @@
         <v>21</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35">
+        <v>14</v>
+      </c>
+      <c r="J35" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="8">
         <v>44</v>
@@ -1847,24 +1862,24 @@
         <v>20</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36">
+        <v>13</v>
+      </c>
+      <c r="J36" s="3">
         <v>3.5</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="8">
         <v>44</v>
@@ -1879,24 +1894,24 @@
         <v>20</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J37">
+        <v>14</v>
+      </c>
+      <c r="J37" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="8">
         <v>38</v>
@@ -1911,24 +1926,24 @@
         <v>20</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38">
+        <v>13</v>
+      </c>
+      <c r="J38" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="8">
         <v>38</v>
@@ -1943,24 +1958,24 @@
         <v>20</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39">
+        <v>14</v>
+      </c>
+      <c r="J39" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C40" s="8">
         <v>45</v>
@@ -1975,24 +1990,24 @@
         <v>19</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40">
+        <v>13</v>
+      </c>
+      <c r="J40" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="8">
         <v>45</v>
@@ -2007,24 +2022,24 @@
         <v>19</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41">
+        <v>14</v>
+      </c>
+      <c r="J41" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C42" s="8">
         <v>46</v>
@@ -2039,24 +2054,24 @@
         <v>49</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42">
+        <v>13</v>
+      </c>
+      <c r="J42" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" s="8">
         <v>46</v>
@@ -2071,24 +2086,24 @@
         <v>49</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J43">
+        <v>14</v>
+      </c>
+      <c r="J43" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C44" s="8">
         <v>37</v>
@@ -2103,24 +2118,24 @@
         <v>27</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44">
+        <v>13</v>
+      </c>
+      <c r="J44" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C45" s="8">
         <v>37</v>
@@ -2135,24 +2150,24 @@
         <v>27</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J45">
+        <v>14</v>
+      </c>
+      <c r="J45" s="3">
         <v>3.5</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="8">
         <v>27</v>
@@ -2167,24 +2182,24 @@
         <v>21</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46">
+        <v>13</v>
+      </c>
+      <c r="J46" s="3">
         <v>11.5</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" s="8">
         <v>27</v>
@@ -2199,24 +2214,24 @@
         <v>21</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J47">
+        <v>14</v>
+      </c>
+      <c r="J47" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="8">
         <v>46</v>
@@ -2231,24 +2246,24 @@
         <v>24</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48">
+        <v>13</v>
+      </c>
+      <c r="J48" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" s="8">
         <v>46</v>
@@ -2263,24 +2278,24 @@
         <v>24</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J49">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="J49" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50" s="8">
         <v>46</v>
@@ -2295,24 +2310,24 @@
         <v>22</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="J50" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" s="8">
         <v>46</v>
@@ -2327,24 +2342,24 @@
         <v>22</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J51">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="J51" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C52" s="8">
         <v>40</v>
@@ -2359,24 +2374,24 @@
         <v>18</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52">
+        <v>13</v>
+      </c>
+      <c r="J52" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" s="8">
         <v>40</v>
@@ -2391,24 +2406,24 @@
         <v>18</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J53">
+        <v>14</v>
+      </c>
+      <c r="J53" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C54" s="8">
         <v>49</v>
@@ -2423,24 +2438,24 @@
         <v>19</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54">
+        <v>13</v>
+      </c>
+      <c r="J54" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" s="8">
         <v>49</v>
@@ -2455,24 +2470,24 @@
         <v>19</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J55">
+        <v>14</v>
+      </c>
+      <c r="J55" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C56" s="8">
         <v>43</v>
@@ -2487,24 +2502,24 @@
         <v>19</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56">
+        <v>13</v>
+      </c>
+      <c r="J56" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57" s="8">
         <v>43</v>
@@ -2519,27 +2534,27 @@
         <v>19</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J57">
+        <v>14</v>
+      </c>
+      <c r="J57" s="3">
         <v>6.5</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58" s="23">
         <v>11</v>
@@ -2551,27 +2566,27 @@
         <v>23</v>
       </c>
       <c r="G58" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H58" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J58" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D59" s="23">
         <v>11</v>
@@ -2583,27 +2598,27 @@
         <v>23</v>
       </c>
       <c r="G59" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H59" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J59" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60" s="23">
         <v>4</v>
@@ -2615,27 +2630,27 @@
         <v>27</v>
       </c>
       <c r="G60" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H60" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J60" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B61" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D61" s="23">
         <v>4</v>
@@ -2647,1167 +2662,1315 @@
         <v>27</v>
       </c>
       <c r="G61" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H61" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J61" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="14" t="s">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="26">
+        <v>18</v>
+      </c>
+      <c r="E62" s="26">
+        <v>13</v>
+      </c>
+      <c r="F62" s="26">
+        <v>20</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="20">
+        <v>3</v>
+      </c>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="26">
+        <v>18</v>
+      </c>
+      <c r="E63" s="26">
+        <v>13</v>
+      </c>
+      <c r="F63" s="26">
+        <v>20</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" s="20">
+        <v>3</v>
+      </c>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+      <c r="O63" s="21"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="26">
+        <v>6</v>
+      </c>
+      <c r="E64" s="26">
+        <v>7</v>
+      </c>
+      <c r="F64" s="26">
+        <v>20</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="20">
+        <v>4</v>
+      </c>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="26">
+        <v>6</v>
+      </c>
+      <c r="E65" s="26">
+        <v>7</v>
+      </c>
+      <c r="F65" s="26">
+        <v>20</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J65" s="20">
+        <v>6</v>
+      </c>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+      <c r="O65" s="21"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="C66" s="15">
+        <v>34</v>
+      </c>
+      <c r="D66" s="16">
+        <v>2</v>
+      </c>
+      <c r="E66" s="16">
+        <v>1</v>
+      </c>
+      <c r="F66" s="16">
+        <v>30</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="15">
+        <v>34</v>
+      </c>
+      <c r="D67" s="16">
+        <v>2</v>
+      </c>
+      <c r="E67" s="16">
+        <v>1</v>
+      </c>
+      <c r="F67" s="16">
+        <v>30</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C62" s="15">
-        <v>34</v>
-      </c>
-      <c r="D62" s="16">
-        <v>2</v>
-      </c>
-      <c r="E62" s="16">
-        <v>1</v>
-      </c>
-      <c r="F62" s="16">
-        <v>30</v>
-      </c>
-      <c r="G62" s="15" t="s">
+      <c r="B68" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="15">
+        <v>42</v>
+      </c>
+      <c r="D68" s="16">
         <v>16</v>
       </c>
-      <c r="H62" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="14" t="s">
+      <c r="E68" s="16">
+        <v>18</v>
+      </c>
+      <c r="F68" s="16">
+        <v>21</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J68" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" s="15">
-        <v>34</v>
-      </c>
-      <c r="D63" s="16">
-        <v>2</v>
-      </c>
-      <c r="E63" s="16">
-        <v>1</v>
-      </c>
-      <c r="F63" s="16">
-        <v>30</v>
-      </c>
-      <c r="G63" s="15" t="s">
+      <c r="C69" s="15">
+        <v>42</v>
+      </c>
+      <c r="D69" s="16">
         <v>16</v>
       </c>
-      <c r="H63" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="14" t="s">
+      <c r="E69" s="16">
+        <v>18</v>
+      </c>
+      <c r="F69" s="16">
+        <v>21</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C64" s="15">
-        <v>42</v>
-      </c>
-      <c r="D64" s="16">
-        <v>16</v>
-      </c>
-      <c r="E64" s="16">
-        <v>18</v>
-      </c>
-      <c r="F64" s="16">
-        <v>21</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J64">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="15">
-        <v>42</v>
-      </c>
-      <c r="D65" s="16">
-        <v>16</v>
-      </c>
-      <c r="E65" s="16">
-        <v>18</v>
-      </c>
-      <c r="F65" s="16">
-        <v>21</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J65">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="14" t="s">
+      <c r="B70" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="15">
         <v>46</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="15">
-        <v>46</v>
-      </c>
-      <c r="D66" s="16">
-        <v>13</v>
-      </c>
-      <c r="E66" s="16">
+      <c r="D70" s="16">
+        <v>13</v>
+      </c>
+      <c r="E70" s="16">
         <v>20</v>
-      </c>
-      <c r="F66" s="16">
-        <v>19</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="15">
-        <v>46</v>
-      </c>
-      <c r="D67" s="16">
-        <v>13</v>
-      </c>
-      <c r="E67" s="16">
-        <v>20</v>
-      </c>
-      <c r="F67" s="16">
-        <v>19</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J67">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="15">
-        <v>41</v>
-      </c>
-      <c r="D68" s="16">
-        <v>9</v>
-      </c>
-      <c r="E68" s="16">
-        <v>13</v>
-      </c>
-      <c r="F68" s="16">
-        <v>39</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="15">
-        <v>41</v>
-      </c>
-      <c r="D69" s="16">
-        <v>9</v>
-      </c>
-      <c r="E69" s="16">
-        <v>13</v>
-      </c>
-      <c r="F69" s="16">
-        <v>39</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C70" s="15">
-        <v>40</v>
-      </c>
-      <c r="D70" s="16">
-        <v>9</v>
-      </c>
-      <c r="E70" s="16">
-        <v>14</v>
       </c>
       <c r="F70" s="16">
         <v>19</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J70">
+        <v>13</v>
+      </c>
+      <c r="J70" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C71" s="15">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D71" s="16">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F71" s="16">
         <v>19</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="J71" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C72" s="15">
         <v>41</v>
       </c>
       <c r="D72" s="16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E72" s="16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F72" s="16">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J72">
+        <v>13</v>
+      </c>
+      <c r="J72" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C73" s="15">
         <v>41</v>
       </c>
       <c r="D73" s="16">
+        <v>9</v>
+      </c>
+      <c r="E73" s="16">
+        <v>13</v>
+      </c>
+      <c r="F73" s="16">
+        <v>39</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J73" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="15">
+        <v>40</v>
+      </c>
+      <c r="D74" s="16">
+        <v>9</v>
+      </c>
+      <c r="E74" s="16">
+        <v>14</v>
+      </c>
+      <c r="F74" s="16">
+        <v>19</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="15">
+        <v>40</v>
+      </c>
+      <c r="D75" s="16">
+        <v>9</v>
+      </c>
+      <c r="E75" s="16">
+        <v>14</v>
+      </c>
+      <c r="F75" s="16">
+        <v>19</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="15">
+        <v>41</v>
+      </c>
+      <c r="D76" s="16">
         <v>8</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E76" s="16">
         <v>6</v>
       </c>
-      <c r="F73" s="16">
+      <c r="F76" s="16">
         <v>21</v>
       </c>
-      <c r="G73" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H73" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J73">
+      <c r="G76" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="15">
+        <v>41</v>
+      </c>
+      <c r="D77" s="16">
+        <v>8</v>
+      </c>
+      <c r="E77" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" s="15">
+      <c r="F77" s="16">
+        <v>21</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="15">
         <v>47</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D78" s="16">
         <v>3</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E78" s="16">
         <v>3</v>
-      </c>
-      <c r="F74" s="16">
-        <v>21</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" s="15">
-        <v>47</v>
-      </c>
-      <c r="D75" s="16">
-        <v>3</v>
-      </c>
-      <c r="E75" s="16">
-        <v>3</v>
-      </c>
-      <c r="F75" s="16">
-        <v>21</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" s="15">
-        <v>29</v>
-      </c>
-      <c r="D76" s="16">
-        <v>12</v>
-      </c>
-      <c r="E76" s="16">
-        <v>16</v>
-      </c>
-      <c r="F76" s="16">
-        <v>18</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C77" s="15">
-        <v>29</v>
-      </c>
-      <c r="D77" s="16">
-        <v>12</v>
-      </c>
-      <c r="E77" s="16">
-        <v>16</v>
-      </c>
-      <c r="F77" s="16">
-        <v>18</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H77" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J77">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C78" s="15">
-        <v>48</v>
-      </c>
-      <c r="D78" s="16">
-        <v>9</v>
-      </c>
-      <c r="E78" s="16">
-        <v>10</v>
       </c>
       <c r="F78" s="16">
         <v>21</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J78">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="J78" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C79" s="15">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D79" s="16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E79" s="16">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F79" s="16">
         <v>21</v>
       </c>
       <c r="G79" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J79" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="15">
+        <v>29</v>
+      </c>
+      <c r="D80" s="16">
+        <v>12</v>
+      </c>
+      <c r="E80" s="16">
         <v>16</v>
       </c>
-      <c r="H79" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J79">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C80" s="15">
-        <v>48</v>
-      </c>
-      <c r="D80" s="16">
-        <v>9</v>
-      </c>
-      <c r="E80" s="16">
-        <v>14</v>
-      </c>
       <c r="F80" s="16">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J80">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="J80" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="15">
+        <v>29</v>
+      </c>
+      <c r="D81" s="16">
+        <v>12</v>
+      </c>
+      <c r="E81" s="16">
+        <v>16</v>
+      </c>
+      <c r="F81" s="16">
+        <v>18</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="15">
+        <v>48</v>
+      </c>
+      <c r="D82" s="16">
+        <v>9</v>
+      </c>
+      <c r="E82" s="16">
+        <v>10</v>
+      </c>
+      <c r="F82" s="16">
+        <v>21</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J82" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" s="15">
+        <v>48</v>
+      </c>
+      <c r="D83" s="16">
+        <v>9</v>
+      </c>
+      <c r="E83" s="16">
+        <v>10</v>
+      </c>
+      <c r="F83" s="16">
+        <v>21</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" s="15">
+        <v>48</v>
+      </c>
+      <c r="D84" s="16">
+        <v>9</v>
+      </c>
+      <c r="E84" s="16">
+        <v>14</v>
+      </c>
+      <c r="F84" s="16">
+        <v>20</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J84" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="15">
+        <v>48</v>
+      </c>
+      <c r="D85" s="16">
+        <v>9</v>
+      </c>
+      <c r="E85" s="16">
+        <v>14</v>
+      </c>
+      <c r="F85" s="16">
+        <v>20</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B81" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C81" s="15">
-        <v>48</v>
-      </c>
-      <c r="D81" s="16">
-        <v>9</v>
-      </c>
-      <c r="E81" s="16">
-        <v>14</v>
-      </c>
-      <c r="F81" s="16">
+      <c r="B86" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="15">
+        <v>32</v>
+      </c>
+      <c r="D86" s="16">
+        <v>1</v>
+      </c>
+      <c r="E86" s="16">
+        <v>4</v>
+      </c>
+      <c r="F86" s="16">
         <v>20</v>
       </c>
-      <c r="G81" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H81" s="15" t="s">
+      <c r="G86" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="15">
+        <v>32</v>
+      </c>
+      <c r="D87" s="16">
+        <v>1</v>
+      </c>
+      <c r="E87" s="16">
+        <v>4</v>
+      </c>
+      <c r="F87" s="16">
         <v>20</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C82" s="15">
-        <v>32</v>
-      </c>
-      <c r="D82" s="16">
-        <v>1</v>
-      </c>
-      <c r="E82" s="16">
-        <v>4</v>
-      </c>
-      <c r="F82" s="16">
-        <v>20</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H82" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C83" s="15">
-        <v>32</v>
-      </c>
-      <c r="D83" s="16">
-        <v>1</v>
-      </c>
-      <c r="E83" s="16">
-        <v>4</v>
-      </c>
-      <c r="F83" s="16">
-        <v>20</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J83">
+      <c r="G87" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" s="3">
         <v>3.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" s="19">
-        <v>8</v>
-      </c>
-      <c r="E84" s="19">
-        <v>11</v>
-      </c>
-      <c r="F84" s="19">
-        <v>26</v>
-      </c>
-      <c r="G84" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I84" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J84" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="19">
-        <v>8</v>
-      </c>
-      <c r="E85" s="19">
-        <v>11</v>
-      </c>
-      <c r="F85" s="19">
-        <v>26</v>
-      </c>
-      <c r="G85" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I85" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J85" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" s="19">
-        <v>10</v>
-      </c>
-      <c r="E86" s="19">
-        <v>14</v>
-      </c>
-      <c r="F86" s="19">
-        <v>23</v>
-      </c>
-      <c r="G86" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H86" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I86" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J86" s="21">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B87" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" s="19">
-        <v>10</v>
-      </c>
-      <c r="E87" s="19">
-        <v>14</v>
-      </c>
-      <c r="F87" s="19">
-        <v>23</v>
-      </c>
-      <c r="G87" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H87" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J87" s="21">
-        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D88" s="19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E88" s="19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F88" s="19">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H88" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I88" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J88" s="21">
+        <v>13</v>
+      </c>
+      <c r="J88" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89" s="19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E89" s="19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F89" s="19">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H89" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I89" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J89" s="21">
-        <v>3.5</v>
+        <v>14</v>
+      </c>
+      <c r="J89" s="20">
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D90" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E90" s="19">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F90" s="19">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H90" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I90" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J90" s="21">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="J90" s="20">
+        <v>3.5</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D91" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E91" s="19">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F91" s="19">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H91" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I91" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J91" s="21">
+        <v>14</v>
+      </c>
+      <c r="J91" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D92" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E92" s="19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F92" s="19">
         <v>18</v>
       </c>
       <c r="G92" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H92" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I92" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J92" s="21">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="J92" s="20">
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D93" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E93" s="19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F93" s="19">
         <v>18</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H93" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I93" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J93" s="21">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="J93" s="20">
+        <v>3.5</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B94" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94" s="19">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E94" s="19">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F94" s="19">
         <v>18</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H94" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I94" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J94" s="21">
-        <v>2.5</v>
+        <v>13</v>
+      </c>
+      <c r="J94" s="20">
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B95" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D95" s="19">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E95" s="19">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F95" s="19">
         <v>18</v>
       </c>
       <c r="G95" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H95" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I95" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J95" s="21">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="J95" s="20">
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B96" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D96" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E96" s="19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F96" s="19">
         <v>18</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H96" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I96" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J96" s="21">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="J96" s="20">
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D97" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E97" s="19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F97" s="19">
         <v>18</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H97" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I97" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J97" s="21">
+        <v>14</v>
+      </c>
+      <c r="J97" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="19">
+        <v>12</v>
+      </c>
+      <c r="E98" s="19">
+        <v>14</v>
+      </c>
+      <c r="F98" s="19">
+        <v>18</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J98" s="20">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B99" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="19">
+        <v>12</v>
+      </c>
+      <c r="E99" s="19">
+        <v>14</v>
+      </c>
+      <c r="F99" s="19">
+        <v>18</v>
+      </c>
+      <c r="G99" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="19">
+        <v>11</v>
+      </c>
+      <c r="E100" s="19">
+        <v>15</v>
+      </c>
+      <c r="F100" s="19">
+        <v>18</v>
+      </c>
+      <c r="G100" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J100" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B101" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="19">
+        <v>11</v>
+      </c>
+      <c r="E101" s="19">
+        <v>15</v>
+      </c>
+      <c r="F101" s="19">
+        <v>18</v>
+      </c>
+      <c r="G101" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J101" s="20">
         <v>5</v>
       </c>
     </row>
